--- a/documentatie/vergadering/Agenda/agenda_10-10-2017.xlsx
+++ b/documentatie/vergadering/Agenda/agenda_10-10-2017.xlsx
@@ -983,8 +983,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1084,7 @@
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="35"/>
       <c r="C8" s="35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>13</v>
@@ -1102,7 +1102,9 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="C9" s="35">
+        <v>1</v>
+      </c>
       <c r="D9" s="35" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1250,7 @@
       <c r="B18" s="54"/>
       <c r="C18" s="55">
         <f>SUM(C8:C17)</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>7</v>
@@ -1532,12 +1534,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1586,6 +1582,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1596,20 +1598,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1624,6 +1612,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
